--- a/statistics/HistoricalDistanceData/historical_distance/Q2090886-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q2090886-en.xlsx
@@ -37,21 +37,21 @@
     <t>National Weather Service Forecast Office</t>
   </si>
   <si>
+    <t>The St. Lawrence River Valley 1998 ice storm: maps and facts</t>
+  </si>
+  <si>
+    <t>Operations : Past Operations : Operation Recuperation</t>
+  </si>
+  <si>
+    <t>Canadian agriculture at a glance 1999: Article</t>
+  </si>
+  <si>
+    <t>Ice Storm 1998</t>
+  </si>
+  <si>
     <t>News: Taken by Storm</t>
   </si>
   <si>
-    <t>The St. Lawrence River Valley 1998 ice storm: maps and facts</t>
-  </si>
-  <si>
-    <t>Operations : Past Operations : Operation Recuperation</t>
-  </si>
-  <si>
-    <t>Canadian agriculture at a glance 1999: Article</t>
-  </si>
-  <si>
-    <t>Ice Storm 1998</t>
-  </si>
-  <si>
     <t>1998-01-08T00:00:00UTC</t>
   </si>
   <si>
@@ -70,19 +70,19 @@
     <t>https://web.archive.org/web/20080511204226/http://www.erh.noaa.gov/btv/events/IceStorm1998/ice98.shtml</t>
   </si>
   <si>
+    <t>http://www.statcan.gc.ca/pub/16f0021x/16f0021x1998001-eng.htm</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20060529011947/http://www.forces.gc.ca/site/Operations/recuperation_e.asp</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20060308012756/http://www.statcan.ca/english/kits/agric/ice.htm</t>
+  </si>
+  <si>
+    <t>http://www.msc-smc.ec.gc.ca/media/icestorm98/icestorm98_the_worst_e.cfm</t>
+  </si>
+  <si>
     <t>https://web.archive.org/web/20090612022908/http://www.theweathernetwork.com/news/storm_watch_stories3&amp;stormfile=topstorms2_01_06_2009</t>
-  </si>
-  <si>
-    <t>http://www.statcan.gc.ca/pub/16f0021x/16f0021x1998001-eng.htm</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20060529011947/http://www.forces.gc.ca/site/Operations/recuperation_e.asp</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20060308012756/http://www.statcan.ca/english/kits/agric/ice.htm</t>
-  </si>
-  <si>
-    <t>http://www.msc-smc.ec.gc.ca/media/icestorm98/icestorm98_the_worst_e.cfm</t>
   </si>
 </sst>
 </file>
